--- a/src/EasyHreg.Backend/Persons.xlsx
+++ b/src/EasyHreg.Backend/Persons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca\source\repos\EasyHreg.Backend\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasca\source\repos\EasyHreg.Backend\src\EasyHreg.Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25109A5-F91D-40B2-8C16-1B26AC52411C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8799D39E-4030-4520-B56E-B0F96D8E7B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -81,22 +81,37 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Maximilliane</t>
-  </si>
-  <si>
-    <t>deutsche Angehörige</t>
-  </si>
-  <si>
     <t>01.01.1992</t>
   </si>
   <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Binary</t>
-  </si>
-  <si>
     <t>01.01.1993</t>
+  </si>
+  <si>
+    <t>Geschäftsleitung, Bereichsleiter Vertrieb</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Fuchs</t>
+  </si>
+  <si>
+    <t>Geschäftsleitung</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>von Tobler</t>
+  </si>
+  <si>
+    <t>schweizer Angehöriger</t>
+  </si>
+  <si>
+    <t>schweizer Angehörige</t>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
@@ -417,20 +432,20 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="24.453125" customWidth="1"/>
     <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="58.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -490,31 +505,37 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -522,25 +543,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
